--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
@@ -1,32 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E131D-648D-49FE-8056-B61765F2AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="2" r:id="rId1"/>
     <sheet name="11" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>2 clone</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>manager_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hierarchy CTE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employees table</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>inner join</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hierarchy CTE UNION ALL inner join</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -37,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +114,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +149,18 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,8 +168,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -105,15 +207,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,10 +505,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -462,11 +576,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -489,7 +603,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -609,6 +726,166 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA8DC18-E115-48A0-9D26-07BE7E83E664}">
+  <dimension ref="G1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.4">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E131D-648D-49FE-8056-B61765F2AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="2" r:id="rId1"/>
     <sheet name="11" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>2 clone</t>
     <phoneticPr fontId="3"/>
@@ -72,6 +71,45 @@
   </si>
   <si>
     <t>hierarchy CTE UNION ALL inner join</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://docs.snowflake.com/en/user-guide/querying-time-series-data</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>moving average</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://docs.snowflake.com/en/sql-reference/functions/dmf_null_count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>randomization</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1 asof join</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -82,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +167,14 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,7 +245,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -213,8 +259,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -222,11 +269,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -505,67 +554,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B47" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -575,168 +1070,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="2">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA8DC18-E115-48A0-9D26-07BE7E83E664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8F952-7154-4790-838C-0C4C4C1173FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="22350" yWindow="0" windowWidth="6555" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="10" sheetId="2" r:id="rId1"/>
-    <sheet name="11" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="8" sheetId="5" r:id="rId1"/>
+    <sheet name="9" sheetId="4" r:id="rId2"/>
+    <sheet name="10" sheetId="2" r:id="rId3"/>
+    <sheet name="11" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,14 +253,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
@@ -554,10 +545,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77AA1A-0D9E-4E4D-8726-91A821E21919}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E3A998-0329-40FD-B2F4-4BC2E39EA54F}">
+  <dimension ref="A26:A60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -821,7 +1024,7 @@
       <c r="A47" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -886,16 +1089,16 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1"/>
-    <hyperlink ref="B47" r:id="rId2"/>
+    <hyperlink ref="B43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B47" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1070,9 +1273,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:L14"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="H1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
@@ -1086,7 +1289,7 @@
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H1" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H3" s="5">
         <v>1</v>
       </c>
@@ -1122,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K4" s="3">
         <v>2</v>
       </c>
@@ -1130,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K5" s="3">
         <v>3</v>
       </c>
@@ -1138,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K6" s="3">
         <v>4</v>
       </c>
@@ -1146,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K7" s="3">
         <v>5</v>
       </c>
@@ -1154,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K8" s="3">
         <v>6</v>
       </c>
@@ -1162,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H10" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H12" s="3">
         <v>2</v>
       </c>
@@ -1198,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H13" s="3">
         <v>3</v>
       </c>
@@ -1212,11 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.4">
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+    <row r="14" spans="8:12" x14ac:dyDescent="0.4">
       <c r="K14" s="3">
         <v>3</v>
       </c>

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8F952-7154-4790-838C-0C4C4C1173FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="22350" yWindow="0" windowWidth="6555" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22350" yWindow="0" windowWidth="6555" windowHeight="15585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="5" r:id="rId1"/>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,10 +544,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77AA1A-0D9E-4E4D-8726-91A821E21919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -576,15 +575,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E3A998-0329-40FD-B2F4-4BC2E39EA54F}">
-  <dimension ref="A26:A60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1</v>
@@ -757,7 +832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1089,8 +1164,8 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B47" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B47" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1098,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1274,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABC9C6-D53F-432B-99BF-7459A294D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22350" yWindow="0" windowWidth="6555" windowHeight="15585" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="5" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>2 clone</t>
     <phoneticPr fontId="3"/>
@@ -97,6 +98,10 @@
   </si>
   <si>
     <t>1 asof join</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -111,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -575,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -693,78 +698,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -832,11 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1012,6 +1023,9 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -1164,8 +1178,8 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1"/>
-    <hyperlink ref="B47" r:id="rId2"/>
+    <hyperlink ref="B43" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B47" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1173,11 +1187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1349,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="H1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABC9C6-D53F-432B-99BF-7459A294D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="5" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>2 clone</t>
     <phoneticPr fontId="3"/>
@@ -98,6 +97,10 @@
   </si>
   <si>
     <t>1 asof join</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -116,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,26 +552,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -580,87 +586,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -705,6 +723,9 @@
       <c r="A34" s="2">
         <v>3</v>
       </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
@@ -743,6 +764,9 @@
       <c r="A41" s="1">
         <v>3</v>
       </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
@@ -780,70 +804,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>1.7</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1178,8 +1206,8 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B47" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B47" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1187,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1363,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B1794-00EB-4EC0-A6D7-2657B05493F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="20160" yWindow="0" windowWidth="8745" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="8" sheetId="5" r:id="rId1"/>
-    <sheet name="9" sheetId="4" r:id="rId2"/>
-    <sheet name="10" sheetId="2" r:id="rId3"/>
-    <sheet name="11" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="7" sheetId="6" r:id="rId1"/>
+    <sheet name="8" sheetId="5" r:id="rId2"/>
+    <sheet name="9" sheetId="4" r:id="rId3"/>
+    <sheet name="10" sheetId="2" r:id="rId4"/>
+    <sheet name="11" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -119,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,11 +554,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAFA826-4F1F-4857-B70E-B2239E621281}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -579,14 +596,219 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -870,8 +1092,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1206,16 +1428,16 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1"/>
-    <hyperlink ref="B47" r:id="rId2"/>
+    <hyperlink ref="B43" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B47" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1390,8 +1612,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="H1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/skillcertpro.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B1794-00EB-4EC0-A6D7-2657B05493F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434100B2-93B5-445A-BD01-E79E4B614B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20160" yWindow="0" windowWidth="8745" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="1440" windowWidth="23415" windowHeight="12990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="6" r:id="rId1"/>
@@ -15,17 +15,28 @@
     <sheet name="11" sheetId="1" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>2 clone</t>
     <phoneticPr fontId="3"/>
@@ -99,6 +110,18 @@
   </si>
   <si>
     <t>1 asof join</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -557,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAFA826-4F1F-4857-B70E-B2239E621281}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1096,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1134,11 +1157,17 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -1148,6 +1177,9 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -1268,6 +1300,9 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -1341,6 +1376,9 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -1440,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1485,11 +1523,17 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -1506,6 +1550,9 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -1533,10 +1580,16 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -1556,6 +1609,9 @@
       <c r="A19" s="2">
         <v>2</v>
       </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
@@ -1584,10 +1640,16 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
